--- a/state_results/Rivers/OrouaTribatUSKimboltonSTP_d7a0924b36.xlsx
+++ b/state_results/Rivers/OrouaTribatUSKimboltonSTP_d7a0924b36.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U179"/>
+  <dimension ref="A1:U195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,27 +567,27 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.19746</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>2.10280410985144</v>
+        <v>2.07226771000064</v>
       </c>
       <c r="H2" t="n">
-        <v>6.76653447184503</v>
+        <v>6.2407072170997</v>
       </c>
       <c r="I2" t="n">
-        <v>4.74411</v>
+        <v>4.60269</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>2.47475</v>
       </c>
       <c r="M2" t="n">
-        <v>3.00128</v>
+        <v>3.15582</v>
       </c>
       <c r="N2" t="n">
-        <v>4.11764</v>
+        <v>4.06107</v>
       </c>
       <c r="O2" t="n">
         <v>1838189</v>
@@ -651,7 +651,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0225594868326473</v>
+        <v>0.0225543905154881</v>
       </c>
       <c r="H3" t="n">
         <v>0.477</v>
@@ -732,7 +732,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0225594868326473</v>
+        <v>0.0225543905154881</v>
       </c>
       <c r="H4" t="n">
         <v>0.477</v>
@@ -1153,7 +1153,7 @@
         <v>0.00957</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0237951874205145</v>
+        <v>0.0238028787124229</v>
       </c>
       <c r="H9" t="n">
         <v>0.340517210650756</v>
@@ -1234,7 +1234,7 @@
         <v>0.00957</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0237951874205145</v>
+        <v>0.0238028787124229</v>
       </c>
       <c r="H10" t="n">
         <v>0.340517210650756</v>
@@ -1473,7 +1473,7 @@
         <v>0.795</v>
       </c>
       <c r="G13" t="n">
-        <v>0.901</v>
+        <v>0.900984745762712</v>
       </c>
       <c r="H13" t="n">
         <v>3.012</v>
@@ -1550,7 +1550,7 @@
         <v>0.795</v>
       </c>
       <c r="G14" t="n">
-        <v>0.901</v>
+        <v>0.900984745762712</v>
       </c>
       <c r="H14" t="n">
         <v>3.012</v>
@@ -1936,16 +1936,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.49836</v>
+        <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.20834978861436</v>
+        <v>2.26764961068977</v>
       </c>
       <c r="H19" t="n">
-        <v>6.76653447184503</v>
+        <v>6.2407072170997</v>
       </c>
       <c r="I19" t="n">
-        <v>4.9</v>
+        <v>4.92776</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1953,10 +1953,10 @@
         <v>2.5</v>
       </c>
       <c r="M19" t="n">
-        <v>3.01707</v>
+        <v>3.36112</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>4.26095</v>
       </c>
       <c r="O19" t="n">
         <v>1838189</v>
@@ -2020,7 +2020,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0217153254935078</v>
+        <v>0.0217114095469914</v>
       </c>
       <c r="H20" t="n">
         <v>0.477</v>
@@ -2101,7 +2101,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0217153254935078</v>
+        <v>0.0217114095469914</v>
       </c>
       <c r="H21" t="n">
         <v>0.477</v>
@@ -2522,7 +2522,7 @@
         <v>0.009639999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0235241145443447</v>
+        <v>0.0235260703386096</v>
       </c>
       <c r="H26" t="n">
         <v>0.340517210650756</v>
@@ -2603,7 +2603,7 @@
         <v>0.009639999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0235241145443447</v>
+        <v>0.0235260703386096</v>
       </c>
       <c r="H27" t="n">
         <v>0.340517210650756</v>
@@ -2842,24 +2842,24 @@
         <v>0.756</v>
       </c>
       <c r="G30" t="n">
-        <v>0.776677966101695</v>
+        <v>0.776681355932203</v>
       </c>
       <c r="H30" t="n">
         <v>3.012</v>
       </c>
       <c r="I30" t="n">
-        <v>1.34915</v>
+        <v>1.34906</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.4395</v>
+        <v>0.4396</v>
       </c>
       <c r="M30" t="n">
         <v>1.13747</v>
       </c>
       <c r="N30" t="n">
-        <v>1.20298</v>
+        <v>1.20291</v>
       </c>
       <c r="O30" t="n">
         <v>1838189</v>
@@ -2919,24 +2919,24 @@
         <v>0.756</v>
       </c>
       <c r="G31" t="n">
-        <v>0.776677966101695</v>
+        <v>0.776681355932203</v>
       </c>
       <c r="H31" t="n">
         <v>3.012</v>
       </c>
       <c r="I31" t="n">
-        <v>1.34915</v>
+        <v>1.34906</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.4395</v>
+        <v>0.4396</v>
       </c>
       <c r="M31" t="n">
         <v>1.13747</v>
       </c>
       <c r="N31" t="n">
-        <v>1.20298</v>
+        <v>1.20291</v>
       </c>
       <c r="O31" t="n">
         <v>1838189</v>
@@ -3308,7 +3308,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0215008654966326</v>
+        <v>0.0214985338789649</v>
       </c>
       <c r="H36" t="n">
         <v>0.477</v>
@@ -3389,7 +3389,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0215008654966326</v>
+        <v>0.0214985338789649</v>
       </c>
       <c r="H37" t="n">
         <v>0.477</v>
@@ -4127,16 +4127,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.624</v>
+        <v>0.6237</v>
       </c>
       <c r="G46" t="n">
-        <v>0.711474576271186</v>
+        <v>0.7114644067796611</v>
       </c>
       <c r="H46" t="n">
         <v>3.012</v>
       </c>
       <c r="I46" t="n">
-        <v>1.22905</v>
+        <v>1.22894</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1.12375</v>
       </c>
       <c r="N46" t="n">
-        <v>1.16616</v>
+        <v>1.16593</v>
       </c>
       <c r="O46" t="n">
         <v>1838189</v>
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.624</v>
+        <v>0.6237</v>
       </c>
       <c r="G47" t="n">
-        <v>0.711474576271186</v>
+        <v>0.7114644067796611</v>
       </c>
       <c r="H47" t="n">
         <v>3.012</v>
       </c>
       <c r="I47" t="n">
-        <v>1.22905</v>
+        <v>1.22894</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -4224,7 +4224,7 @@
         <v>1.12375</v>
       </c>
       <c r="N47" t="n">
-        <v>1.16616</v>
+        <v>1.16593</v>
       </c>
       <c r="O47" t="n">
         <v>1838189</v>
@@ -4596,7 +4596,7 @@
         <v>0.008</v>
       </c>
       <c r="G52" t="n">
-        <v>0.009159184405021999</v>
+        <v>0.0091568916476488</v>
       </c>
       <c r="H52" t="n">
         <v>0.048</v>
@@ -4677,7 +4677,7 @@
         <v>0.008</v>
       </c>
       <c r="G53" t="n">
-        <v>0.009159184405021999</v>
+        <v>0.0091568916476488</v>
       </c>
       <c r="H53" t="n">
         <v>0.048</v>
@@ -5098,7 +5098,7 @@
         <v>0.00607</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0150496568337437</v>
+        <v>0.0150546686888291</v>
       </c>
       <c r="H58" t="n">
         <v>0.132741517901038</v>
@@ -5179,7 +5179,7 @@
         <v>0.00607</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0150496568337437</v>
+        <v>0.0150546686888291</v>
       </c>
       <c r="H59" t="n">
         <v>0.132741517901038</v>
@@ -5260,7 +5260,7 @@
         <v>0.4545</v>
       </c>
       <c r="G60" t="n">
-        <v>0.559754293924973</v>
+        <v>0.559686468711357</v>
       </c>
       <c r="H60" t="n">
         <v>1.2421</v>
@@ -5341,7 +5341,7 @@
         <v>0.4545</v>
       </c>
       <c r="G61" t="n">
-        <v>0.559754293924973</v>
+        <v>0.559686468711357</v>
       </c>
       <c r="H61" t="n">
         <v>1.2421</v>
@@ -5415,16 +5415,16 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.5315</v>
+        <v>0.5317</v>
       </c>
       <c r="G62" t="n">
-        <v>0.59213302969087</v>
+        <v>0.592095885827853</v>
       </c>
       <c r="H62" t="n">
-        <v>1.243</v>
+        <v>1.2428</v>
       </c>
       <c r="I62" t="n">
-        <v>1.16</v>
+        <v>1.15985</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -5432,10 +5432,10 @@
         <v>0.2675</v>
       </c>
       <c r="M62" t="n">
-        <v>1.0293</v>
+        <v>1.02936</v>
       </c>
       <c r="N62" t="n">
-        <v>1.1432</v>
+        <v>1.14332</v>
       </c>
       <c r="O62" t="n">
         <v>1838189</v>
@@ -5492,16 +5492,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.5315</v>
+        <v>0.5317</v>
       </c>
       <c r="G63" t="n">
-        <v>0.59213302969087</v>
+        <v>0.592095885827853</v>
       </c>
       <c r="H63" t="n">
-        <v>1.243</v>
+        <v>1.2428</v>
       </c>
       <c r="I63" t="n">
-        <v>1.16</v>
+        <v>1.15985</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -5509,10 +5509,10 @@
         <v>0.2675</v>
       </c>
       <c r="M63" t="n">
-        <v>1.0293</v>
+        <v>1.02936</v>
       </c>
       <c r="N63" t="n">
-        <v>1.1432</v>
+        <v>1.14332</v>
       </c>
       <c r="O63" t="n">
         <v>1838189</v>
@@ -5884,7 +5884,7 @@
         <v>0.0075</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0081983921938632</v>
+        <v>0.0081934817752143</v>
       </c>
       <c r="H68" t="n">
         <v>0.021</v>
@@ -5965,7 +5965,7 @@
         <v>0.0075</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0081983921938632</v>
+        <v>0.0081934817752143</v>
       </c>
       <c r="H69" t="n">
         <v>0.021</v>
@@ -6386,7 +6386,7 @@
         <v>0.0017</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0088283184086781</v>
+        <v>0.008861614449868299</v>
       </c>
       <c r="H74" t="n">
         <v>0.132741517901038</v>
@@ -6397,7 +6397,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>0.00111</v>
+        <v>0.00115</v>
       </c>
       <c r="M74" t="n">
         <v>0.01099</v>
@@ -6467,7 +6467,7 @@
         <v>0.0017</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0088283184086781</v>
+        <v>0.008861614449868299</v>
       </c>
       <c r="H75" t="n">
         <v>0.132741517901038</v>
@@ -6478,7 +6478,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.00111</v>
+        <v>0.00115</v>
       </c>
       <c r="M75" t="n">
         <v>0.01099</v>
@@ -6548,7 +6548,7 @@
         <v>0.41415</v>
       </c>
       <c r="G76" t="n">
-        <v>0.485978397482059</v>
+        <v>0.485819753754675</v>
       </c>
       <c r="H76" t="n">
         <v>1.2421</v>
@@ -6629,7 +6629,7 @@
         <v>0.41415</v>
       </c>
       <c r="G77" t="n">
-        <v>0.485978397482059</v>
+        <v>0.485819753754675</v>
       </c>
       <c r="H77" t="n">
         <v>1.2421</v>
@@ -6703,16 +6703,16 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.4485</v>
+        <v>0.44855</v>
       </c>
       <c r="G78" t="n">
-        <v>0.508161277439323</v>
+        <v>0.50810246558898</v>
       </c>
       <c r="H78" t="n">
-        <v>1.243</v>
+        <v>1.2428</v>
       </c>
       <c r="I78" t="n">
-        <v>1.138</v>
+        <v>1.1382</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -6720,10 +6720,10 @@
         <v>0.218</v>
       </c>
       <c r="M78" t="n">
-        <v>0.8959</v>
+        <v>0.89599</v>
       </c>
       <c r="N78" t="n">
-        <v>1.0916</v>
+        <v>1.09166</v>
       </c>
       <c r="O78" t="n">
         <v>1838189</v>
@@ -6780,16 +6780,16 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.4485</v>
+        <v>0.44855</v>
       </c>
       <c r="G79" t="n">
-        <v>0.508161277439323</v>
+        <v>0.50810246558898</v>
       </c>
       <c r="H79" t="n">
-        <v>1.243</v>
+        <v>1.2428</v>
       </c>
       <c r="I79" t="n">
-        <v>1.138</v>
+        <v>1.1382</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -6797,10 +6797,10 @@
         <v>0.218</v>
       </c>
       <c r="M79" t="n">
-        <v>0.8959</v>
+        <v>0.89599</v>
       </c>
       <c r="N79" t="n">
-        <v>1.0916</v>
+        <v>1.09166</v>
       </c>
       <c r="O79" t="n">
         <v>1838189</v>
@@ -7172,7 +7172,7 @@
         <v>0.007</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0087861189947053</v>
+        <v>0.0087820794656967</v>
       </c>
       <c r="H84" t="n">
         <v>0.038</v>
@@ -7253,7 +7253,7 @@
         <v>0.007</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0087861189947053</v>
+        <v>0.0087820794656967</v>
       </c>
       <c r="H85" t="n">
         <v>0.038</v>
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.00161</v>
+        <v>0.0017</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0053791496048911</v>
+        <v>0.0054467503199733</v>
       </c>
       <c r="H90" t="n">
         <v>0.07890990130459991</v>
@@ -7685,13 +7685,13 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>0.00111</v>
+        <v>0.00115</v>
       </c>
       <c r="M90" t="n">
         <v>0.007979999999999999</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01217</v>
+        <v>0.01234</v>
       </c>
       <c r="O90" t="n">
         <v>1838189</v>
@@ -7752,10 +7752,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.00161</v>
+        <v>0.0017</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0053791496048911</v>
+        <v>0.0054467503199733</v>
       </c>
       <c r="H91" t="n">
         <v>0.07890990130459991</v>
@@ -7766,13 +7766,13 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
-        <v>0.00111</v>
+        <v>0.00115</v>
       </c>
       <c r="M91" t="n">
         <v>0.007979999999999999</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01217</v>
+        <v>0.01234</v>
       </c>
       <c r="O91" t="n">
         <v>1838189</v>
@@ -7836,7 +7836,7 @@
         <v>0.35535</v>
       </c>
       <c r="G92" t="n">
-        <v>0.415293610139121</v>
+        <v>0.415028543604962</v>
       </c>
       <c r="H92" t="n">
         <v>1.2421</v>
@@ -7917,7 +7917,7 @@
         <v>0.35535</v>
       </c>
       <c r="G93" t="n">
-        <v>0.415293610139121</v>
+        <v>0.415028543604962</v>
       </c>
       <c r="H93" t="n">
         <v>1.2421</v>
@@ -7994,24 +7994,24 @@
         <v>0.362</v>
       </c>
       <c r="G94" t="n">
-        <v>0.430804350626275</v>
+        <v>0.430720973060797</v>
       </c>
       <c r="H94" t="n">
-        <v>1.243</v>
+        <v>1.2428</v>
       </c>
       <c r="I94" t="n">
-        <v>1.0915</v>
+        <v>1.0918</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
-        <v>0.1045</v>
+        <v>0.1044</v>
       </c>
       <c r="M94" t="n">
-        <v>0.7526</v>
+        <v>0.75267</v>
       </c>
       <c r="N94" t="n">
-        <v>0.9944</v>
+        <v>0.99459</v>
       </c>
       <c r="O94" t="n">
         <v>1838189</v>
@@ -8071,24 +8071,24 @@
         <v>0.362</v>
       </c>
       <c r="G95" t="n">
-        <v>0.430804350626275</v>
+        <v>0.430720973060797</v>
       </c>
       <c r="H95" t="n">
-        <v>1.243</v>
+        <v>1.2428</v>
       </c>
       <c r="I95" t="n">
-        <v>1.0915</v>
+        <v>1.0918</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
-        <v>0.1045</v>
+        <v>0.1044</v>
       </c>
       <c r="M95" t="n">
-        <v>0.7526</v>
+        <v>0.75267</v>
       </c>
       <c r="N95" t="n">
-        <v>0.9944</v>
+        <v>0.99459</v>
       </c>
       <c r="O95" t="n">
         <v>1838189</v>
@@ -8460,7 +8460,7 @@
         <v>0.0075</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0096361189947053</v>
+        <v>0.0096320794656967</v>
       </c>
       <c r="H100" t="n">
         <v>0.038</v>
@@ -8541,7 +8541,7 @@
         <v>0.0075</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0096361189947053</v>
+        <v>0.0096320794656967</v>
       </c>
       <c r="H101" t="n">
         <v>0.038</v>
@@ -8959,10 +8959,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0.00189</v>
+        <v>0.00193</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0070519042261283</v>
+        <v>0.0071388613421928</v>
       </c>
       <c r="H106" t="n">
         <v>0.1</v>
@@ -8973,13 +8973,13 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
-        <v>0.00169</v>
+        <v>0.0018</v>
       </c>
       <c r="M106" t="n">
         <v>0.008160000000000001</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01159</v>
+        <v>0.01229</v>
       </c>
       <c r="O106" t="n">
         <v>1838189</v>
@@ -9040,10 +9040,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0.00189</v>
+        <v>0.00193</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0070519042261283</v>
+        <v>0.0071388613421928</v>
       </c>
       <c r="H107" t="n">
         <v>0.1</v>
@@ -9054,13 +9054,13 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.00169</v>
+        <v>0.0018</v>
       </c>
       <c r="M107" t="n">
         <v>0.008160000000000001</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01159</v>
+        <v>0.01229</v>
       </c>
       <c r="O107" t="n">
         <v>1838189</v>
@@ -9124,7 +9124,7 @@
         <v>0.3401</v>
       </c>
       <c r="G108" t="n">
-        <v>0.393746943472455</v>
+        <v>0.393481876938296</v>
       </c>
       <c r="H108" t="n">
         <v>1.68</v>
@@ -9135,7 +9135,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.04651</v>
+        <v>0.0455</v>
       </c>
       <c r="M108" t="n">
         <v>0.68193</v>
@@ -9205,7 +9205,7 @@
         <v>0.3401</v>
       </c>
       <c r="G109" t="n">
-        <v>0.393746943472455</v>
+        <v>0.393481876938296</v>
       </c>
       <c r="H109" t="n">
         <v>1.68</v>
@@ -9216,7 +9216,7 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>0.04651</v>
+        <v>0.0455</v>
       </c>
       <c r="M109" t="n">
         <v>0.68193</v>
@@ -9279,10 +9279,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0.348</v>
+        <v>0.34795</v>
       </c>
       <c r="G110" t="n">
-        <v>0.409254350626275</v>
+        <v>0.409159306394131</v>
       </c>
       <c r="H110" t="n">
         <v>1.685</v>
@@ -9293,13 +9293,13 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.06579</v>
+        <v>0.06506000000000001</v>
       </c>
       <c r="M110" t="n">
         <v>0.6886</v>
       </c>
       <c r="N110" t="n">
-        <v>0.8642</v>
+        <v>0.86392</v>
       </c>
       <c r="O110" t="n">
         <v>1838189</v>
@@ -9356,10 +9356,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0.348</v>
+        <v>0.34795</v>
       </c>
       <c r="G111" t="n">
-        <v>0.409254350626275</v>
+        <v>0.409159306394131</v>
       </c>
       <c r="H111" t="n">
         <v>1.685</v>
@@ -9370,13 +9370,13 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.06579</v>
+        <v>0.06506000000000001</v>
       </c>
       <c r="M111" t="n">
         <v>0.6886</v>
       </c>
       <c r="N111" t="n">
-        <v>0.8642</v>
+        <v>0.86392</v>
       </c>
       <c r="O111" t="n">
         <v>1838189</v>
@@ -9748,7 +9748,7 @@
         <v>0.008</v>
       </c>
       <c r="G116" t="n">
-        <v>0.009835355473146999</v>
+        <v>0.009830335053086101</v>
       </c>
       <c r="H116" t="n">
         <v>0.038</v>
@@ -9829,7 +9829,7 @@
         <v>0.008</v>
       </c>
       <c r="G117" t="n">
-        <v>0.009835355473146999</v>
+        <v>0.009830335053086101</v>
       </c>
       <c r="H117" t="n">
         <v>0.038</v>
@@ -10247,10 +10247,10 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.00284</v>
+        <v>0.003</v>
       </c>
       <c r="G122" t="n">
-        <v>0.007868849988966999</v>
+        <v>0.007989925226245099</v>
       </c>
       <c r="H122" t="n">
         <v>0.1</v>
@@ -10261,13 +10261,13 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>0.00385</v>
+        <v>0.00397</v>
       </c>
       <c r="M122" t="n">
         <v>0.008569999999999999</v>
       </c>
       <c r="N122" t="n">
-        <v>0.01216</v>
+        <v>0.01279</v>
       </c>
       <c r="O122" t="n">
         <v>1838189</v>
@@ -10328,10 +10328,10 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0.00284</v>
+        <v>0.003</v>
       </c>
       <c r="G123" t="n">
-        <v>0.007868849988966999</v>
+        <v>0.007989925226245099</v>
       </c>
       <c r="H123" t="n">
         <v>0.1</v>
@@ -10342,13 +10342,13 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.00385</v>
+        <v>0.00397</v>
       </c>
       <c r="M123" t="n">
         <v>0.008569999999999999</v>
       </c>
       <c r="N123" t="n">
-        <v>0.01216</v>
+        <v>0.01279</v>
       </c>
       <c r="O123" t="n">
         <v>1838189</v>
@@ -10412,7 +10412,7 @@
         <v>0.3025</v>
       </c>
       <c r="G124" t="n">
-        <v>0.376197275957564</v>
+        <v>0.375874190780448</v>
       </c>
       <c r="H124" t="n">
         <v>1.68</v>
@@ -10423,7 +10423,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.03552</v>
+        <v>0.03277</v>
       </c>
       <c r="M124" t="n">
         <v>0.6551</v>
@@ -10493,7 +10493,7 @@
         <v>0.3025</v>
       </c>
       <c r="G125" t="n">
-        <v>0.376197275957564</v>
+        <v>0.375874190780448</v>
       </c>
       <c r="H125" t="n">
         <v>1.68</v>
@@ -10504,7 +10504,7 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.03552</v>
+        <v>0.03277</v>
       </c>
       <c r="M125" t="n">
         <v>0.6551</v>
@@ -10570,7 +10570,7 @@
         <v>0.31</v>
       </c>
       <c r="G126" t="n">
-        <v>0.391554350626275</v>
+        <v>0.391480973060797</v>
       </c>
       <c r="H126" t="n">
         <v>1.685</v>
@@ -10581,7 +10581,7 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>0.04764</v>
+        <v>0.04625</v>
       </c>
       <c r="M126" t="n">
         <v>0.6745</v>
@@ -10647,7 +10647,7 @@
         <v>0.31</v>
       </c>
       <c r="G127" t="n">
-        <v>0.391554350626275</v>
+        <v>0.391480973060797</v>
       </c>
       <c r="H127" t="n">
         <v>1.685</v>
@@ -10658,7 +10658,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
-        <v>0.04764</v>
+        <v>0.04625</v>
       </c>
       <c r="M127" t="n">
         <v>0.6745</v>
@@ -11036,7 +11036,7 @@
         <v>0.008</v>
       </c>
       <c r="G132" t="n">
-        <v>0.009510530989641001</v>
+        <v>0.009505425477714701</v>
       </c>
       <c r="H132" t="n">
         <v>0.038</v>
@@ -11117,7 +11117,7 @@
         <v>0.008</v>
       </c>
       <c r="G133" t="n">
-        <v>0.009510530989641001</v>
+        <v>0.009505425477714701</v>
       </c>
       <c r="H133" t="n">
         <v>0.038</v>
@@ -11535,27 +11535,27 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0.00354</v>
+        <v>0.00369</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0077587705351219</v>
+        <v>0.007883564824194399</v>
       </c>
       <c r="H138" t="n">
         <v>0.1</v>
       </c>
       <c r="I138" t="n">
-        <v>0.01316</v>
+        <v>0.01323</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>0.00391</v>
+        <v>0.00399</v>
       </c>
       <c r="M138" t="n">
-        <v>0.008710000000000001</v>
+        <v>0.009140000000000001</v>
       </c>
       <c r="N138" t="n">
-        <v>0.01178</v>
+        <v>0.01249</v>
       </c>
       <c r="O138" t="n">
         <v>1838189</v>
@@ -11616,27 +11616,27 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0.00354</v>
+        <v>0.00369</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0077587705351219</v>
+        <v>0.007883564824194399</v>
       </c>
       <c r="H139" t="n">
         <v>0.1</v>
       </c>
       <c r="I139" t="n">
-        <v>0.01316</v>
+        <v>0.01323</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.00391</v>
+        <v>0.00399</v>
       </c>
       <c r="M139" t="n">
-        <v>0.008710000000000001</v>
+        <v>0.009140000000000001</v>
       </c>
       <c r="N139" t="n">
-        <v>0.01178</v>
+        <v>0.01249</v>
       </c>
       <c r="O139" t="n">
         <v>1838189</v>
@@ -11700,7 +11700,7 @@
         <v>0.277</v>
       </c>
       <c r="G140" t="n">
-        <v>0.394109001048434</v>
+        <v>0.393655879731312</v>
       </c>
       <c r="H140" t="n">
         <v>1.83</v>
@@ -11711,7 +11711,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.04131</v>
+        <v>0.03757</v>
       </c>
       <c r="M140" t="n">
         <v>0.64294</v>
@@ -11781,7 +11781,7 @@
         <v>0.277</v>
       </c>
       <c r="G141" t="n">
-        <v>0.394109001048434</v>
+        <v>0.393655879731312</v>
       </c>
       <c r="H141" t="n">
         <v>1.83</v>
@@ -11792,7 +11792,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.04131</v>
+        <v>0.03757</v>
       </c>
       <c r="M141" t="n">
         <v>0.64294</v>
@@ -11858,18 +11858,18 @@
         <v>0.285</v>
       </c>
       <c r="G142" t="n">
-        <v>0.405054830516177</v>
+        <v>0.405004022267899</v>
       </c>
       <c r="H142" t="n">
         <v>1.835</v>
       </c>
       <c r="I142" t="n">
-        <v>1.2265</v>
+        <v>1.22672</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.04185</v>
+        <v>0.0412</v>
       </c>
       <c r="M142" t="n">
         <v>0.66735</v>
@@ -11935,18 +11935,18 @@
         <v>0.285</v>
       </c>
       <c r="G143" t="n">
-        <v>0.405054830516177</v>
+        <v>0.405004022267899</v>
       </c>
       <c r="H143" t="n">
         <v>1.835</v>
       </c>
       <c r="I143" t="n">
-        <v>1.2265</v>
+        <v>1.22672</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
-        <v>0.04185</v>
+        <v>0.0412</v>
       </c>
       <c r="M143" t="n">
         <v>0.66735</v>
@@ -12324,7 +12324,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0098636261041634</v>
+        <v>0.009861646369315301</v>
       </c>
       <c r="H148" t="n">
         <v>0.038</v>
@@ -12405,7 +12405,7 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0098636261041634</v>
+        <v>0.009861646369315301</v>
       </c>
       <c r="H149" t="n">
         <v>0.038</v>
@@ -12486,7 +12486,7 @@
         <v>410</v>
       </c>
       <c r="G150" t="n">
-        <v>984.828154403456</v>
+        <v>984.820614454569</v>
       </c>
       <c r="H150" t="n">
         <v>17000</v>
@@ -12571,7 +12571,7 @@
         <v>410</v>
       </c>
       <c r="G151" t="n">
-        <v>984.828154403456</v>
+        <v>984.820614454569</v>
       </c>
       <c r="H151" t="n">
         <v>17000</v>
@@ -12656,7 +12656,7 @@
         <v>410</v>
       </c>
       <c r="G152" t="n">
-        <v>984.828154403456</v>
+        <v>984.820614454569</v>
       </c>
       <c r="H152" t="n">
         <v>17000</v>
@@ -12741,7 +12741,7 @@
         <v>410</v>
       </c>
       <c r="G153" t="n">
-        <v>984.828154403456</v>
+        <v>984.820614454569</v>
       </c>
       <c r="H153" t="n">
         <v>17000</v>
@@ -12823,10 +12823,10 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0.0038</v>
+        <v>0.00386</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0082347867219101</v>
+        <v>0.008327697027297</v>
       </c>
       <c r="H154" t="n">
         <v>0.1</v>
@@ -12837,13 +12837,13 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>0.00391</v>
+        <v>0.00399</v>
       </c>
       <c r="M154" t="n">
         <v>0.009140000000000001</v>
       </c>
       <c r="N154" t="n">
-        <v>0.01253</v>
+        <v>0.01295</v>
       </c>
       <c r="O154" t="n">
         <v>1838189</v>
@@ -12904,10 +12904,10 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0.0038</v>
+        <v>0.00386</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0082347867219101</v>
+        <v>0.008327697027297</v>
       </c>
       <c r="H155" t="n">
         <v>0.1</v>
@@ -12918,13 +12918,13 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>0.00391</v>
+        <v>0.00399</v>
       </c>
       <c r="M155" t="n">
         <v>0.009140000000000001</v>
       </c>
       <c r="N155" t="n">
-        <v>0.01253</v>
+        <v>0.01295</v>
       </c>
       <c r="O155" t="n">
         <v>1838189</v>
@@ -12988,7 +12988,7 @@
         <v>0.286</v>
       </c>
       <c r="G156" t="n">
-        <v>0.401084488956482</v>
+        <v>0.400723725449973</v>
       </c>
       <c r="H156" t="n">
         <v>1.83</v>
@@ -12999,7 +12999,7 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
-        <v>0.04131</v>
+        <v>0.03757</v>
       </c>
       <c r="M156" t="n">
         <v>0.6408199999999999</v>
@@ -13069,7 +13069,7 @@
         <v>0.286</v>
       </c>
       <c r="G157" t="n">
-        <v>0.401084488956482</v>
+        <v>0.400723725449973</v>
       </c>
       <c r="H157" t="n">
         <v>1.83</v>
@@ -13080,7 +13080,7 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>0.04131</v>
+        <v>0.03757</v>
       </c>
       <c r="M157" t="n">
         <v>0.6408199999999999</v>
@@ -13146,18 +13146,18 @@
         <v>0.292</v>
       </c>
       <c r="G158" t="n">
-        <v>0.41275491755165</v>
+        <v>0.412726144544719</v>
       </c>
       <c r="H158" t="n">
         <v>1.835</v>
       </c>
       <c r="I158" t="n">
-        <v>1.2265</v>
+        <v>1.22672</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>0.04579</v>
+        <v>0.04506</v>
       </c>
       <c r="M158" t="n">
         <v>0.66205</v>
@@ -13223,18 +13223,18 @@
         <v>0.292</v>
       </c>
       <c r="G159" t="n">
-        <v>0.41275491755165</v>
+        <v>0.412726144544719</v>
       </c>
       <c r="H159" t="n">
         <v>1.835</v>
       </c>
       <c r="I159" t="n">
-        <v>1.2265</v>
+        <v>1.22672</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
-        <v>0.04579</v>
+        <v>0.04506</v>
       </c>
       <c r="M159" t="n">
         <v>0.66205</v>
@@ -13612,7 +13612,7 @@
         <v>0.01</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0110017945431909</v>
+        <v>0.0110007512777977</v>
       </c>
       <c r="H164" t="n">
         <v>0.035</v>
@@ -13693,7 +13693,7 @@
         <v>0.01</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0110017945431909</v>
+        <v>0.0110007512777977</v>
       </c>
       <c r="H165" t="n">
         <v>0.035</v>
@@ -13774,7 +13774,7 @@
         <v>354</v>
       </c>
       <c r="G166" t="n">
-        <v>577.0654425390489</v>
+        <v>577.057902590162</v>
       </c>
       <c r="H166" t="n">
         <v>3500</v>
@@ -13859,7 +13859,7 @@
         <v>354</v>
       </c>
       <c r="G167" t="n">
-        <v>577.0654425390489</v>
+        <v>577.057902590162</v>
       </c>
       <c r="H167" t="n">
         <v>3500</v>
@@ -13944,7 +13944,7 @@
         <v>354</v>
       </c>
       <c r="G168" t="n">
-        <v>577.0654425390489</v>
+        <v>577.057902590162</v>
       </c>
       <c r="H168" t="n">
         <v>3500</v>
@@ -14029,7 +14029,7 @@
         <v>354</v>
       </c>
       <c r="G169" t="n">
-        <v>577.0654425390489</v>
+        <v>577.057902590162</v>
       </c>
       <c r="H169" t="n">
         <v>3500</v>
@@ -14111,10 +14111,10 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0.00405</v>
+        <v>0.00422</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0073330437559611</v>
+        <v>0.007387031450586</v>
       </c>
       <c r="H170" t="n">
         <v>0.1</v>
@@ -14125,13 +14125,13 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
-        <v>0.00399</v>
+        <v>0.00403</v>
       </c>
       <c r="M170" t="n">
         <v>0.00906</v>
       </c>
       <c r="N170" t="n">
-        <v>0.01253</v>
+        <v>0.01295</v>
       </c>
       <c r="O170" t="n">
         <v>1838189</v>
@@ -14192,10 +14192,10 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0.00405</v>
+        <v>0.00422</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0073330437559611</v>
+        <v>0.007387031450586</v>
       </c>
       <c r="H171" t="n">
         <v>0.1</v>
@@ -14206,13 +14206,13 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>0.00399</v>
+        <v>0.00403</v>
       </c>
       <c r="M171" t="n">
         <v>0.00906</v>
       </c>
       <c r="N171" t="n">
-        <v>0.01253</v>
+        <v>0.01295</v>
       </c>
       <c r="O171" t="n">
         <v>1838189</v>
@@ -14276,7 +14276,7 @@
         <v>0.389</v>
       </c>
       <c r="G172" t="n">
-        <v>0.450204611678114</v>
+        <v>0.449952074754764</v>
       </c>
       <c r="H172" t="n">
         <v>1.83</v>
@@ -14287,7 +14287,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
-        <v>0.05372</v>
+        <v>0.05174</v>
       </c>
       <c r="M172" t="n">
         <v>0.79696</v>
@@ -14357,7 +14357,7 @@
         <v>0.389</v>
       </c>
       <c r="G173" t="n">
-        <v>0.450204611678114</v>
+        <v>0.449952074754764</v>
       </c>
       <c r="H173" t="n">
         <v>1.83</v>
@@ -14368,7 +14368,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
-        <v>0.05372</v>
+        <v>0.05174</v>
       </c>
       <c r="M173" t="n">
         <v>0.79696</v>
@@ -14434,7 +14434,7 @@
         <v>0.393</v>
       </c>
       <c r="G174" t="n">
-        <v>0.460880605836105</v>
+        <v>0.460876814912362</v>
       </c>
       <c r="H174" t="n">
         <v>1.835</v>
@@ -14451,7 +14451,7 @@
         <v>0.8176</v>
       </c>
       <c r="N174" t="n">
-        <v>1.09428</v>
+        <v>1.09467</v>
       </c>
       <c r="O174" t="n">
         <v>1838189</v>
@@ -14511,7 +14511,7 @@
         <v>0.393</v>
       </c>
       <c r="G175" t="n">
-        <v>0.460880605836105</v>
+        <v>0.460876814912362</v>
       </c>
       <c r="H175" t="n">
         <v>1.835</v>
@@ -14528,7 +14528,7 @@
         <v>0.8176</v>
       </c>
       <c r="N175" t="n">
-        <v>1.09428</v>
+        <v>1.09467</v>
       </c>
       <c r="O175" t="n">
         <v>1838189</v>
@@ -14870,6 +14870,1294 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.0121193953455943</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.02565</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P180" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.0121193953455943</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.02565</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0.0115</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P181" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>343</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1682.46468225118</v>
+      </c>
+      <c r="H182" t="n">
+        <v>57940</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3732.1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>33.8983050847458</v>
+      </c>
+      <c r="K182" t="n">
+        <v>61.0169491525424</v>
+      </c>
+      <c r="L182" t="n">
+        <v>525</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1041.7</v>
+      </c>
+      <c r="N182" t="n">
+        <v>2256</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P182" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>343</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1682.46468225118</v>
+      </c>
+      <c r="H183" t="n">
+        <v>57940</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3732.1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>33.8983050847458</v>
+      </c>
+      <c r="K183" t="n">
+        <v>61.0169491525424</v>
+      </c>
+      <c r="L183" t="n">
+        <v>525</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1041.7</v>
+      </c>
+      <c r="N183" t="n">
+        <v>2256</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P183" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>343</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1682.46468225118</v>
+      </c>
+      <c r="H184" t="n">
+        <v>57940</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3732.1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>33.8983050847458</v>
+      </c>
+      <c r="K184" t="n">
+        <v>61.0169491525424</v>
+      </c>
+      <c r="L184" t="n">
+        <v>525</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1041.7</v>
+      </c>
+      <c r="N184" t="n">
+        <v>2256</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P184" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>343</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1682.46468225118</v>
+      </c>
+      <c r="H185" t="n">
+        <v>57940</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3732.1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>33.8983050847458</v>
+      </c>
+      <c r="K185" t="n">
+        <v>61.0169491525424</v>
+      </c>
+      <c r="L185" t="n">
+        <v>525</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1041.7</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2256</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P185" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.00431</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.007439661260014</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.09378009756039821</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.0262</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>0.00446</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.008569999999999999</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.01348</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P186" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.00431</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.007439661260014</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.09378009756039821</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.0262</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>0.00446</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0.008569999999999999</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.01348</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P187" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.39449444763612</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.0865</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.7599399999999999</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.9758</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P188" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.39449444763612</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1.0865</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.7599399999999999</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.9758</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.408029357285243</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1.08858</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.76967</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.99602</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.408029357285243</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1.08858</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.76967</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.99602</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.696271186440678</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1.4285</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1.0741</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1.3356</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.696271186440678</v>
+      </c>
+      <c r="H193" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1.4285</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1.0741</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1.3356</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.0508474576271186</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.0683</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.05278</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Oroua Trib at U/S Kimbolton STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.0508474576271186</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.0683</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>0.0265</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.05278</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1838189</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5561608</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Mana_12a</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OrouaTribatUSKimboltonSTP_d7a0924b36.xlsx
+++ b/state_results/Rivers/OrouaTribatUSKimboltonSTP_d7a0924b36.xlsx
@@ -567,27 +567,27 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2.05783</v>
       </c>
       <c r="G2" t="n">
-        <v>2.07226771000064</v>
+        <v>2.31449848724506</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2407072170997</v>
+        <v>7.52854639460673</v>
       </c>
       <c r="I2" t="n">
-        <v>4.60269</v>
+        <v>6.00121</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>2.47475</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>3.15582</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>4.06107</v>
+        <v>4.51228</v>
       </c>
       <c r="O2" t="n">
         <v>1838189</v>
@@ -1939,13 +1939,13 @@
         <v>2.5</v>
       </c>
       <c r="G19" t="n">
-        <v>2.26764961068977</v>
+        <v>2.3836955979032</v>
       </c>
       <c r="H19" t="n">
-        <v>6.2407072170997</v>
+        <v>7.52854639460673</v>
       </c>
       <c r="I19" t="n">
-        <v>4.92776</v>
+        <v>4.93747</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1953,10 +1953,10 @@
         <v>2.5</v>
       </c>
       <c r="M19" t="n">
-        <v>3.36112</v>
+        <v>4.00343</v>
       </c>
       <c r="N19" t="n">
-        <v>4.26095</v>
+        <v>4.37087</v>
       </c>
       <c r="O19" t="n">
         <v>1838189</v>
